--- a/biology/Zoologie/Collocheres_elegans/Collocheres_elegans.xlsx
+++ b/biology/Zoologie/Collocheres_elegans/Collocheres_elegans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Collocheres elegans est une espèce de crustacés copépodes de l'ordre des Siphonostomatoida et de la famille des Asterocheridae. Elle parasite l'ophiure noire (Ophiocomina nigra) dans le Firth of Clyde, en Écosse[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Collocheres elegans est une espèce de crustacés copépodes de l'ordre des Siphonostomatoida et de la famille des Asterocheridae. Elle parasite l'ophiure noire (Ophiocomina nigra) dans le Firth of Clyde, en Écosse.
 </t>
         </is>
       </c>
